--- a/牛客笔试题/JVM.xlsx
+++ b/牛客笔试题/JVM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView windowWidth="13875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,8 +164,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -185,28 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,9 +200,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,7 +298,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,84 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF009900"/>
       <name val="Consolas"/>
@@ -356,79 +356,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,97 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +541,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,15 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,11 +592,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,36 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,8 +889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45720" y="179070"/>
-          <a:ext cx="6795135" cy="3790950"/>
+          <a:off x="45720" y="172720"/>
+          <a:ext cx="7421245" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,8 +931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7213600" y="2279650"/>
-          <a:ext cx="2349500" cy="603250"/>
+          <a:off x="7861300" y="2203450"/>
+          <a:ext cx="2565400" cy="577850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,8 +973,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="50800" y="5283200"/>
-          <a:ext cx="4241800" cy="3879850"/>
+          <a:off x="50800" y="5099050"/>
+          <a:ext cx="4630420" cy="3740150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,8 +1015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4591050" y="5930900"/>
-          <a:ext cx="7144385" cy="1346200"/>
+          <a:off x="5001260" y="5721350"/>
+          <a:ext cx="7792085" cy="1301750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,8 +1057,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="50800" y="9842500"/>
-          <a:ext cx="4629150" cy="4743450"/>
+          <a:off x="50800" y="9493250"/>
+          <a:ext cx="5039360" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,8 +1099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4940300" y="10090150"/>
-          <a:ext cx="8052435" cy="2330450"/>
+          <a:off x="5393690" y="9734550"/>
+          <a:ext cx="8786495" cy="2247900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1141,8 +1141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31750" y="15246350"/>
-          <a:ext cx="8750935" cy="3632200"/>
+          <a:off x="31750" y="14706600"/>
+          <a:ext cx="9549765" cy="3498850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,8 +1183,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="102870" y="18999200"/>
-          <a:ext cx="6204585" cy="1778000"/>
+          <a:off x="102870" y="18326100"/>
+          <a:ext cx="6765925" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1225,8 +1225,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31750" y="20955000"/>
-          <a:ext cx="8230235" cy="1612900"/>
+          <a:off x="31750" y="20212050"/>
+          <a:ext cx="8985885" cy="1555750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,8 +1267,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25400" y="23279100"/>
-          <a:ext cx="4368800" cy="5016500"/>
+          <a:off x="25400" y="22453600"/>
+          <a:ext cx="4757420" cy="4832350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1309,8 +1309,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445000" y="24168100"/>
-          <a:ext cx="5562600" cy="2730500"/>
+          <a:off x="4833620" y="23310850"/>
+          <a:ext cx="6080760" cy="2628900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1351,8 +1351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="30111700"/>
-          <a:ext cx="5772150" cy="4457700"/>
+          <a:off x="635" y="29038550"/>
+          <a:ext cx="6290310" cy="4298950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1393,8 +1393,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5759450" y="30803850"/>
-          <a:ext cx="5454650" cy="869950"/>
+          <a:off x="6277610" y="29705300"/>
+          <a:ext cx="5951220" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,8 +1435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44450" y="36137850"/>
-          <a:ext cx="2889250" cy="3854450"/>
+          <a:off x="44450" y="34848800"/>
+          <a:ext cx="3148330" cy="3721100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1477,8 +1477,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3289300" y="36144200"/>
-          <a:ext cx="3454400" cy="1435100"/>
+          <a:off x="3591560" y="34855150"/>
+          <a:ext cx="3756660" cy="1384300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,8 +1519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3232150" y="37928550"/>
-          <a:ext cx="8154035" cy="2235200"/>
+          <a:off x="3512820" y="36576000"/>
+          <a:ext cx="8909685" cy="2159000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1561,8 +1561,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="40767000"/>
-          <a:ext cx="6541135" cy="3416300"/>
+          <a:off x="635" y="39312850"/>
+          <a:ext cx="7124065" cy="3295650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,8 +1603,176 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6845300" y="41992550"/>
-          <a:ext cx="5321300" cy="2038350"/>
+          <a:off x="7471410" y="40493950"/>
+          <a:ext cx="5796280" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="702945" y="43538775"/>
+          <a:ext cx="7086600" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1082675" y="46815375"/>
+          <a:ext cx="4924425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1149350" y="47567850"/>
+          <a:ext cx="8067675" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>18415</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="49853850"/>
+          <a:ext cx="7620000" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,13 +2077,13 @@
   <sheetPr/>
   <dimension ref="C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D226" workbookViewId="0">
-      <selection activeCell="AI232" sqref="AI232"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D277" workbookViewId="0">
+      <selection activeCell="AF304" sqref="AF304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.36363636363636" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="3.36666666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="3.36363636363636" customWidth="1"/>
+    <col min="1" max="16384" width="3.36666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="25" spans="3:3">
@@ -1940,7 +2108,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1957,7 +2125,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
